--- a/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-fr-observation-body-temperature.xlsx
+++ b/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-fr-observation-body-temperature.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4927" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4945" uniqueCount="704">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T16:32:25+01:00</t>
+    <t>2023-03-23T15:01:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -322,6 +322,13 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Observation.meta.id</t>
   </si>
   <si>
@@ -607,16 +614,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -635,10 +636,6 @@
     <t>Permet de définir le niveau d'effort (au repos, à l'effort, après l'effort) lors de la mesure de la fréquence respiratoire</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Observation.extension:supportingInfo</t>
   </si>
   <si>
@@ -682,7 +679,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -733,7 +730,14 @@
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -762,7 +766,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -790,6 +794,9 @@
   </si>
   <si>
     <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -839,6 +846,9 @@
 value:coding.system}</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
@@ -966,6 +976,9 @@
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -1222,7 +1235,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1280,14 +1293,14 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
-    <t xml:space="preserve">vs-1
-</t>
+    <t>ele-1
+vs-1</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1315,7 +1328,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1365,7 +1378,7 @@
     <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
   </si>
   <si>
     <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
@@ -1378,8 +1391,8 @@
     <t>closed</t>
   </si>
   <si>
-    <t>obs-7
-vs-2</t>
+    <t>ele-1
+obs-7vs-2</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -1518,6 +1531,9 @@
     <t>The identification of the system that provides the coded form of the unit.</t>
   </si>
   <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
+  </si>
+  <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
@@ -1527,8 +1543,8 @@
     <t>Quantity.system</t>
   </si>
   <si>
-    <t xml:space="preserve">qty-3
-</t>
+    <t>ele-1
+qty-3</t>
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
@@ -1583,8 +1599,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-vs-2</t>
+    <t>ele-1
+obs-6vs-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1642,6 +1658,9 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
     <t>http://www.interopsante.org/fhir/structuredefinition/observation/fr-obervation-interpretation</t>
   </si>
   <si>
@@ -1692,7 +1711,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J151-BodySiteBodyTemperature-ENS/FHIR/JDV-J151-BodySiteBodyTemperature-ENS</t>
@@ -1924,8 +1943,15 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-3
-</t>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1
+obs-3</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>OBX-7</t>
@@ -1982,7 +2008,10 @@
     <t>Observation.referenceRange.appliesTo</t>
   </si>
   <si>
-    <t>Non utilisé</t>
+    <t>Reference range population</t>
+  </si>
+  <si>
+    <t>Codes to indicate the target population this reference range applies to.  For example, a reference range may be based on the normal population or a particular sex or race.  Multiple `appliesTo`  are interpreted as an "AND" of the target populations.  For example, to represent a target population of African American females, both a code of female and a code for African American would be used.</t>
   </si>
   <si>
     <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
@@ -2010,7 +2039,17 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
+    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+  </si>
+  <si>
     <t>Some analytes vary greatly over age.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=PRCN].targetObservationCriterion[code="age"].value</t>
@@ -2035,7 +2074,13 @@
 </t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>Used when reporting vital signs panel components</t>
+  </si>
+  <si>
+    <t>Used when reporting vital signs panel components.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -2051,7 +2096,13 @@
 </t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
+    <t>Related measurements the observation is made from</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
+  </si>
+  <si>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -2063,7 +2114,7 @@
     <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -2120,7 +2171,7 @@
     <t>Vital Sign Value recorded with UCUM.</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
   </si>
   <si>
     <t>Common UCUM units for recording Vital Signs.</t>
@@ -2129,8 +2180,8 @@
     <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">vs-3
-</t>
+    <t>ele-1
+vs-3</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2149,14 +2200,11 @@
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
   </si>
   <si>
-    <t>obs-6
-vs-3</t>
+    <t>ele-1
+obs-6vs-3</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
@@ -2990,7 +3038,7 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -3005,7 +3053,7 @@
         <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AO4" t="s" s="2">
         <v>78</v>
@@ -3016,10 +3064,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -3042,13 +3090,13 @@
         <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3099,7 +3147,7 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -3123,7 +3171,7 @@
         <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>78</v>
@@ -3134,14 +3182,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3160,16 +3208,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3207,19 +3255,19 @@
         <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -3231,7 +3279,7 @@
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -3243,7 +3291,7 @@
         <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>78</v>
@@ -3254,10 +3302,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3283,13 +3331,13 @@
         <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3339,7 +3387,7 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -3351,7 +3399,7 @@
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -3374,10 +3422,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3400,16 +3448,16 @@
         <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3459,7 +3507,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -3471,7 +3519,7 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -3494,10 +3542,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3520,16 +3568,16 @@
         <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3579,7 +3627,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3591,7 +3639,7 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3614,10 +3662,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3640,16 +3688,16 @@
         <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3687,17 +3735,17 @@
         <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3709,7 +3757,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3732,10 +3780,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>7</v>
@@ -3760,16 +3808,16 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3819,7 +3867,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3831,7 +3879,7 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -3854,10 +3902,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3880,16 +3928,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3915,13 +3963,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3939,7 +3987,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3951,7 +3999,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3974,10 +4022,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -4000,16 +4048,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -4035,13 +4083,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -4059,7 +4107,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -4071,7 +4119,7 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -4094,10 +4142,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4120,16 +4168,16 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4179,7 +4227,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -4188,10 +4236,10 @@
         <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -4203,7 +4251,7 @@
         <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -4214,10 +4262,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4240,16 +4288,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4275,13 +4323,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -4299,7 +4347,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -4308,10 +4356,10 @@
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -4323,7 +4371,7 @@
         <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -4334,14 +4382,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4360,16 +4408,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4419,7 +4467,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -4428,10 +4476,10 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -4443,7 +4491,7 @@
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -4454,14 +4502,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4480,16 +4528,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4539,7 +4587,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -4563,7 +4611,7 @@
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -4574,14 +4622,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4600,15 +4648,17 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4645,14 +4695,16 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>193</v>
@@ -4664,10 +4716,10 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4679,7 +4731,7 @@
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -4693,7 +4745,7 @@
         <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>195</v>
@@ -4784,10 +4836,10 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -4799,7 +4851,7 @@
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -4810,16 +4862,16 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4838,15 +4890,17 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4904,10 +4958,10 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -4919,7 +4973,7 @@
         <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4930,13 +4984,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -4958,13 +5012,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5024,10 +5078,10 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -5050,14 +5104,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -5076,19 +5130,19 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -5125,19 +5179,19 @@
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -5146,10 +5200,10 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -5161,7 +5215,7 @@
         <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -5172,10 +5226,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5198,17 +5252,17 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -5257,7 +5311,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -5266,25 +5320,25 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>78</v>
@@ -5292,14 +5346,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5318,15 +5372,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>228</v>
       </c>
@@ -5377,7 +5433,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -5386,22 +5442,22 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -5412,14 +5468,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5438,16 +5494,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5497,7 +5553,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -5506,22 +5562,22 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -5532,10 +5588,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5558,19 +5614,19 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -5595,11 +5651,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -5617,7 +5675,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>88</v>
@@ -5626,25 +5684,25 @@
         <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>78</v>
@@ -5652,10 +5710,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5678,19 +5736,19 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5715,29 +5773,29 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -5746,10 +5804,10 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -5758,13 +5816,13 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>78</v>
@@ -5772,13 +5830,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>78</v>
@@ -5800,19 +5858,19 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5837,13 +5895,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5861,7 +5919,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5870,10 +5928,10 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5882,13 +5940,13 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>78</v>
@@ -5896,10 +5954,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5922,13 +5980,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5979,7 +6037,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -6003,7 +6061,7 @@
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -6014,14 +6072,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -6040,16 +6098,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6087,19 +6145,19 @@
         <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -6108,10 +6166,10 @@
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -6123,7 +6181,7 @@
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -6134,10 +6192,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6160,19 +6218,19 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -6221,7 +6279,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -6230,10 +6288,10 @@
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -6242,10 +6300,10 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -6256,10 +6314,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6282,13 +6340,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6339,7 +6397,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -6363,7 +6421,7 @@
         <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -6374,14 +6432,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6400,16 +6458,16 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6447,19 +6505,19 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -6468,10 +6526,10 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -6483,7 +6541,7 @@
         <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6494,10 +6552,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6520,26 +6578,26 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>78</v>
@@ -6581,7 +6639,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6590,10 +6648,10 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -6602,10 +6660,10 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6616,10 +6674,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6642,16 +6700,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6701,7 +6759,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6710,10 +6768,10 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -6722,10 +6780,10 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6736,10 +6794,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6762,24 +6820,26 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>78</v>
@@ -6821,7 +6881,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6830,10 +6890,10 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6842,10 +6902,10 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6856,10 +6916,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6882,17 +6942,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6941,7 +7003,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6950,10 +7012,10 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6962,10 +7024,10 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6976,10 +7038,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7002,19 +7064,19 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -7063,7 +7125,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -7072,10 +7134,10 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -7084,10 +7146,10 @@
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -7098,10 +7160,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7124,19 +7186,19 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -7185,7 +7247,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -7194,10 +7256,10 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -7206,10 +7268,10 @@
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -7220,14 +7282,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7246,19 +7308,19 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -7283,13 +7345,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -7307,7 +7369,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>88</v>
@@ -7316,36 +7378,36 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7368,13 +7430,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7425,7 +7487,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -7449,7 +7511,7 @@
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -7460,14 +7522,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7486,16 +7548,16 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7533,19 +7595,19 @@
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -7554,10 +7616,10 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -7569,7 +7631,7 @@
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7580,10 +7642,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7606,19 +7668,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7655,17 +7717,17 @@
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7674,10 +7736,10 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -7686,10 +7748,10 @@
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7700,13 +7762,13 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>78</v>
@@ -7728,19 +7790,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7789,7 +7851,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7798,10 +7860,10 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -7810,10 +7872,10 @@
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7824,10 +7886,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7850,13 +7912,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7907,7 +7969,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7931,7 +7993,7 @@
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7942,14 +8004,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7968,16 +8030,16 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8015,19 +8077,19 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -8036,10 +8098,10 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -8051,7 +8113,7 @@
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -8062,10 +8124,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8088,26 +8150,26 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>78</v>
@@ -8149,7 +8211,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -8158,10 +8220,10 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -8170,10 +8232,10 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -8184,10 +8246,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8210,16 +8272,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8269,7 +8331,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -8278,10 +8340,10 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -8290,10 +8352,10 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -8304,10 +8366,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8330,24 +8392,26 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>78</v>
@@ -8389,7 +8453,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -8398,10 +8462,10 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -8410,10 +8474,10 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -8424,10 +8488,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8450,17 +8514,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -8509,7 +8575,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -8518,10 +8584,10 @@
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -8530,10 +8596,10 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -8544,10 +8610,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8570,19 +8636,19 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8631,7 +8697,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8640,10 +8706,10 @@
         <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -8652,10 +8718,10 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -8666,10 +8732,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8692,19 +8758,19 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -8753,7 +8819,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8762,10 +8828,10 @@
         <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -8774,10 +8840,10 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -8788,10 +8854,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8814,19 +8880,19 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8875,7 +8941,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8884,25 +8950,25 @@
         <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>78</v>
@@ -8910,10 +8976,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8936,16 +9002,16 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8995,7 +9061,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -9004,10 +9070,10 @@
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -9016,13 +9082,13 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>78</v>
@@ -9030,14 +9096,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9056,19 +9122,19 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -9117,7 +9183,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -9126,25 +9192,25 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>78</v>
@@ -9152,14 +9218,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9178,19 +9244,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -9239,7 +9305,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -9248,25 +9314,25 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>78</v>
@@ -9274,10 +9340,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9300,16 +9366,16 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9359,7 +9425,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -9368,10 +9434,10 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -9380,13 +9446,13 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>78</v>
@@ -9394,10 +9460,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9420,17 +9486,19 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -9479,7 +9547,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -9488,25 +9556,25 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>78</v>
@@ -9514,10 +9582,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9540,19 +9608,19 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -9589,17 +9657,17 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -9608,39 +9676,39 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>78</v>
@@ -9662,19 +9730,19 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -9684,84 +9752,84 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="T60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9784,13 +9852,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9841,7 +9909,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9865,7 +9933,7 @@
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9876,14 +9944,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9902,16 +9970,16 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9949,19 +10017,19 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9970,10 +10038,10 @@
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9985,7 +10053,7 @@
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -9996,10 +10064,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10022,19 +10090,19 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -10083,7 +10151,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -10092,10 +10160,10 @@
         <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -10104,10 +10172,10 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -10118,10 +10186,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10144,23 +10212,25 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q64" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>78</v>
@@ -10181,13 +10251,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -10205,7 +10275,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -10214,10 +10284,10 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -10226,10 +10296,10 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -10240,10 +10310,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10266,17 +10336,19 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -10325,7 +10397,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -10334,10 +10406,10 @@
         <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -10346,10 +10418,10 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -10360,10 +10432,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10386,24 +10458,26 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="O66" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>78</v>
@@ -10445,7 +10519,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -10454,10 +10528,10 @@
         <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -10466,10 +10540,10 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>78</v>
@@ -10480,10 +10554,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10506,19 +10580,19 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -10543,13 +10617,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -10567,7 +10641,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -10576,10 +10650,10 @@
         <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -10588,10 +10662,10 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>78</v>
@@ -10602,10 +10676,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10628,19 +10702,19 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -10665,32 +10739,32 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
@@ -10698,10 +10772,10 @@
         <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -10710,10 +10784,10 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -10724,10 +10798,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10750,13 +10824,13 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10807,7 +10881,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -10831,7 +10905,7 @@
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10842,14 +10916,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10868,16 +10942,16 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10915,19 +10989,19 @@
         <v>78</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10939,7 +11013,7 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -10951,7 +11025,7 @@
         <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>78</v>
@@ -10962,10 +11036,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10988,19 +11062,19 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -11049,7 +11123,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -11061,7 +11135,7 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -11070,10 +11144,10 @@
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>78</v>
@@ -11084,10 +11158,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11110,13 +11184,13 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11167,7 +11241,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -11191,7 +11265,7 @@
         <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
@@ -11202,14 +11276,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11228,16 +11302,16 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11275,19 +11349,19 @@
         <v>78</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -11299,7 +11373,7 @@
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -11311,7 +11385,7 @@
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>78</v>
@@ -11322,10 +11396,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11348,19 +11422,19 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -11409,7 +11483,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -11421,7 +11495,7 @@
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -11430,10 +11504,10 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>78</v>
@@ -11444,10 +11518,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11470,16 +11544,16 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11529,7 +11603,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -11541,7 +11615,7 @@
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -11550,10 +11624,10 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>78</v>
@@ -11564,10 +11638,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11590,17 +11664,17 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -11649,7 +11723,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11661,7 +11735,7 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -11670,10 +11744,10 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
@@ -11684,10 +11758,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11710,17 +11784,17 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -11769,7 +11843,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11781,7 +11855,7 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11790,10 +11864,10 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
@@ -11804,10 +11878,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11830,19 +11904,19 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -11891,7 +11965,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11903,7 +11977,7 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11912,10 +11986,10 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>78</v>
@@ -11926,10 +12000,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11952,19 +12026,19 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -12013,7 +12087,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -12025,7 +12099,7 @@
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -12034,10 +12108,10 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>78</v>
@@ -12048,14 +12122,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12074,19 +12148,19 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -12111,11 +12185,13 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y80" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="Z80" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -12133,7 +12209,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -12142,36 +12218,36 @@
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12194,19 +12270,19 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -12255,7 +12331,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -12264,10 +12340,10 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -12276,10 +12352,10 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>78</v>
@@ -12290,10 +12366,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12316,16 +12392,16 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12351,11 +12427,11 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -12373,7 +12449,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -12382,36 +12458,36 @@
         <v>88</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12434,13 +12510,13 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12491,7 +12567,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -12515,7 +12591,7 @@
         <v>78</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>78</v>
@@ -12526,14 +12602,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12552,16 +12628,16 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12599,19 +12675,19 @@
         <v>78</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12623,7 +12699,7 @@
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -12635,7 +12711,7 @@
         <v>78</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>78</v>
@@ -12646,10 +12722,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12672,19 +12748,19 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -12733,7 +12809,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12745,7 +12821,7 @@
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12754,10 +12830,10 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>78</v>
@@ -12768,10 +12844,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12794,13 +12870,13 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12851,7 +12927,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -12875,7 +12951,7 @@
         <v>78</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>78</v>
@@ -12886,14 +12962,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12912,16 +12988,16 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12959,19 +13035,19 @@
         <v>78</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12983,7 +13059,7 @@
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12995,7 +13071,7 @@
         <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>78</v>
@@ -13006,10 +13082,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13032,19 +13108,19 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -13093,7 +13169,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -13105,7 +13181,7 @@
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -13114,10 +13190,10 @@
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>78</v>
@@ -13128,10 +13204,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13154,16 +13230,16 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13213,7 +13289,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -13225,7 +13301,7 @@
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -13234,10 +13310,10 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>78</v>
@@ -13248,10 +13324,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13274,17 +13350,17 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -13333,7 +13409,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -13345,7 +13421,7 @@
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -13354,10 +13430,10 @@
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>78</v>
@@ -13368,10 +13444,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13394,17 +13470,17 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -13453,7 +13529,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -13465,7 +13541,7 @@
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -13474,10 +13550,10 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>78</v>
@@ -13488,10 +13564,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13514,19 +13590,19 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -13575,7 +13651,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -13587,7 +13663,7 @@
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
@@ -13596,10 +13672,10 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>78</v>
@@ -13610,10 +13686,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13636,19 +13712,19 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
@@ -13697,7 +13773,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13709,7 +13785,7 @@
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
@@ -13718,10 +13794,10 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>78</v>
@@ -13732,10 +13808,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13758,19 +13834,19 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
@@ -13795,13 +13871,13 @@
         <v>78</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>78</v>
@@ -13819,7 +13895,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
@@ -13828,10 +13904,10 @@
         <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -13840,10 +13916,10 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>78</v>
@@ -13854,10 +13930,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13880,13 +13956,13 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13937,7 +14013,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13961,7 +14037,7 @@
         <v>78</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>78</v>
@@ -13972,14 +14048,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13998,16 +14074,16 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -14045,19 +14121,19 @@
         <v>78</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -14069,7 +14145,7 @@
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -14081,7 +14157,7 @@
         <v>78</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>78</v>
@@ -14092,10 +14168,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14118,19 +14194,19 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
@@ -14179,7 +14255,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -14191,7 +14267,7 @@
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -14200,10 +14276,10 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>78</v>
@@ -14214,10 +14290,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14240,13 +14316,13 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14297,7 +14373,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -14321,7 +14397,7 @@
         <v>78</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>78</v>
@@ -14332,14 +14408,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14358,16 +14434,16 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14405,19 +14481,19 @@
         <v>78</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -14429,7 +14505,7 @@
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
@@ -14441,7 +14517,7 @@
         <v>78</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>78</v>
@@ -14452,10 +14528,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14478,19 +14554,19 @@
         <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -14539,7 +14615,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -14551,7 +14627,7 @@
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -14560,10 +14636,10 @@
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>78</v>
@@ -14574,10 +14650,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14600,16 +14676,16 @@
         <v>89</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14659,7 +14735,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -14671,7 +14747,7 @@
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -14680,10 +14756,10 @@
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>78</v>
@@ -14694,10 +14770,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14720,17 +14796,17 @@
         <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -14779,7 +14855,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -14791,7 +14867,7 @@
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -14800,10 +14876,10 @@
         <v>78</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>78</v>
@@ -14814,10 +14890,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14840,17 +14916,17 @@
         <v>89</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>78</v>
@@ -14899,7 +14975,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -14911,7 +14987,7 @@
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>78</v>
@@ -14920,10 +14996,10 @@
         <v>78</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>78</v>
@@ -14934,10 +15010,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14960,19 +15036,19 @@
         <v>89</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>78</v>
@@ -15021,7 +15097,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -15033,7 +15109,7 @@
         <v>78</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>78</v>
@@ -15042,10 +15118,10 @@
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>78</v>
@@ -15056,10 +15132,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15082,19 +15158,19 @@
         <v>89</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
@@ -15143,7 +15219,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -15155,7 +15231,7 @@
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>78</v>
@@ -15164,10 +15240,10 @@
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>78</v>
@@ -15178,10 +15254,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15204,16 +15280,16 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15263,7 +15339,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -15272,36 +15348,36 @@
         <v>88</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15324,16 +15400,16 @@
         <v>78</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15383,7 +15459,7 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
@@ -15392,36 +15468,36 @@
         <v>88</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15444,19 +15520,19 @@
         <v>78</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>78</v>
@@ -15505,7 +15581,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -15514,10 +15590,10 @@
         <v>77</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
@@ -15526,10 +15602,10 @@
         <v>78</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>78</v>
@@ -15540,10 +15616,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15566,13 +15642,13 @@
         <v>78</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15623,7 +15699,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
@@ -15647,7 +15723,7 @@
         <v>78</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>78</v>
@@ -15658,14 +15734,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15684,16 +15760,16 @@
         <v>78</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15731,19 +15807,19 @@
         <v>78</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC110" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
@@ -15752,10 +15828,10 @@
         <v>77</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>78</v>
@@ -15767,7 +15843,7 @@
         <v>78</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>78</v>
@@ -15778,14 +15854,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15804,19 +15880,19 @@
         <v>89</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -15865,7 +15941,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
@@ -15874,10 +15950,10 @@
         <v>77</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>78</v>
@@ -15889,7 +15965,7 @@
         <v>78</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>78</v>
@@ -15900,10 +15976,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15926,15 +16002,17 @@
         <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>617</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>78</v>
@@ -15983,7 +16061,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
@@ -15992,10 +16070,10 @@
         <v>88</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>122</v>
+        <v>620</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>78</v>
@@ -16004,10 +16082,10 @@
         <v>78</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>78</v>
@@ -16018,10 +16096,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16044,15 +16122,17 @@
         <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>625</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>78</v>
@@ -16101,7 +16181,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
@@ -16110,10 +16190,10 @@
         <v>88</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>122</v>
+        <v>620</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>78</v>
@@ -16122,10 +16202,10 @@
         <v>78</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
@@ -16136,10 +16216,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16162,19 +16242,19 @@
         <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -16199,13 +16279,13 @@
         <v>78</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>78</v>
@@ -16223,7 +16303,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
@@ -16232,22 +16312,22 @@
         <v>88</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>78</v>
@@ -16258,10 +16338,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16284,19 +16364,19 @@
         <v>78</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>78</v>
@@ -16321,13 +16401,13 @@
         <v>78</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>78</v>
@@ -16345,7 +16425,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>76</v>
@@ -16354,22 +16434,22 @@
         <v>77</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>78</v>
@@ -16380,10 +16460,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16406,17 +16486,19 @@
         <v>78</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>646</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>647</v>
+      </c>
       <c r="O116" t="s" s="2">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>78</v>
@@ -16465,7 +16547,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>76</v>
@@ -16474,10 +16556,10 @@
         <v>88</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>122</v>
+        <v>649</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>78</v>
@@ -16486,10 +16568,10 @@
         <v>78</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>78</v>
+        <v>650</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>78</v>
@@ -16500,10 +16582,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16526,15 +16608,17 @@
         <v>78</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>78</v>
@@ -16583,7 +16667,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>76</v>
@@ -16592,10 +16676,10 @@
         <v>88</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>78</v>
@@ -16604,10 +16688,10 @@
         <v>78</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>78</v>
@@ -16618,10 +16702,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16644,16 +16728,16 @@
         <v>89</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16703,7 +16787,7 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>76</v>
@@ -16712,10 +16796,10 @@
         <v>77</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>78</v>
@@ -16724,10 +16808,10 @@
         <v>78</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>78</v>
@@ -16738,10 +16822,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16764,16 +16848,16 @@
         <v>89</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>629</v>
+        <v>666</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -16823,7 +16907,7 @@
         <v>78</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>76</v>
@@ -16832,10 +16916,10 @@
         <v>77</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>78</v>
@@ -16844,10 +16928,10 @@
         <v>78</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>78</v>
@@ -16858,10 +16942,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16884,19 +16968,19 @@
         <v>89</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>78</v>
@@ -16945,7 +17029,7 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>76</v>
@@ -16954,10 +17038,10 @@
         <v>77</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>78</v>
@@ -16966,10 +17050,10 @@
         <v>78</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>78</v>
@@ -16980,10 +17064,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17006,13 +17090,13 @@
         <v>78</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -17063,7 +17147,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>76</v>
@@ -17087,7 +17171,7 @@
         <v>78</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>78</v>
@@ -17098,14 +17182,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17124,16 +17208,16 @@
         <v>78</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -17171,19 +17255,19 @@
         <v>78</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC122" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>76</v>
@@ -17192,10 +17276,10 @@
         <v>77</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>78</v>
@@ -17207,7 +17291,7 @@
         <v>78</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>78</v>
@@ -17218,14 +17302,14 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17244,19 +17328,19 @@
         <v>89</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>78</v>
@@ -17305,7 +17389,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>76</v>
@@ -17314,10 +17398,10 @@
         <v>77</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>78</v>
@@ -17329,7 +17413,7 @@
         <v>78</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>78</v>
@@ -17340,10 +17424,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17366,19 +17450,19 @@
         <v>89</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>78</v>
@@ -17403,13 +17487,13 @@
         <v>78</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>78</v>
@@ -17427,7 +17511,7 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>88</v>
@@ -17436,25 +17520,25 @@
         <v>88</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AP124" t="s" s="2">
         <v>78</v>
@@ -17462,10 +17546,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17488,19 +17572,19 @@
         <v>89</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>78</v>
@@ -17525,13 +17609,13 @@
         <v>78</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>78</v>
@@ -17549,7 +17633,7 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>76</v>
@@ -17558,36 +17642,36 @@
         <v>88</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17610,19 +17694,19 @@
         <v>78</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>78</v>
@@ -17647,13 +17731,13 @@
         <v>78</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>78</v>
@@ -17671,7 +17755,7 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>76</v>
@@ -17680,10 +17764,10 @@
         <v>88</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>78</v>
@@ -17692,10 +17776,10 @@
         <v>78</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>78</v>
@@ -17706,14 +17790,14 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17732,19 +17816,19 @@
         <v>78</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>78</v>
@@ -17769,13 +17853,13 @@
         <v>78</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>684</v>
+        <v>527</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>78</v>
@@ -17793,7 +17877,7 @@
         <v>78</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>76</v>
@@ -17802,36 +17886,36 @@
         <v>77</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17857,16 +17941,16 @@
         <v>79</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>78</v>
@@ -17915,7 +17999,7 @@
         <v>78</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>76</v>
@@ -17927,7 +18011,7 @@
         <v>78</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>78</v>
@@ -17936,10 +18020,10 @@
         <v>78</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>78</v>
